--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Lgr6</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H2">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I2">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J2">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05147733333333333</v>
+        <v>0.05147733333333334</v>
       </c>
       <c r="N2">
         <v>0.154432</v>
       </c>
       <c r="O2">
-        <v>0.6968198390066058</v>
+        <v>0.887188413789934</v>
       </c>
       <c r="P2">
-        <v>0.6968198390066057</v>
+        <v>0.8871884137899338</v>
       </c>
       <c r="Q2">
-        <v>0.003464287260444444</v>
+        <v>0.3903585728782223</v>
       </c>
       <c r="R2">
-        <v>0.031178585344</v>
+        <v>3.513227155904</v>
       </c>
       <c r="S2">
-        <v>0.006114352338955882</v>
+        <v>0.8868509719278441</v>
       </c>
       <c r="T2">
-        <v>0.006114352338955882</v>
+        <v>0.8868509719278441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +578,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7.583115666666667</v>
+      </c>
+      <c r="H3">
+        <v>22.749347</v>
+      </c>
+      <c r="I3">
+        <v>0.9996196502830235</v>
+      </c>
+      <c r="J3">
+        <v>0.9996196502830236</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.06729733333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.201892</v>
-      </c>
-      <c r="I3">
-        <v>0.008774653069109758</v>
-      </c>
-      <c r="J3">
-        <v>0.00877465306910976</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>0.02239733333333334</v>
+        <v>0.006545666666666668</v>
       </c>
       <c r="N3">
-        <v>0.067192</v>
+        <v>0.019637</v>
       </c>
       <c r="O3">
-        <v>0.3031801609933943</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="P3">
-        <v>0.3031801609933942</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="Q3">
-        <v>0.001507280807111111</v>
+        <v>0.04963654744877779</v>
       </c>
       <c r="R3">
-        <v>0.013565527264</v>
+        <v>0.446728927039</v>
       </c>
       <c r="S3">
-        <v>0.002660300730153878</v>
+        <v>0.1127686783551795</v>
       </c>
       <c r="T3">
-        <v>0.002660300730153878</v>
+        <v>0.1127686783551795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +640,31 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H4">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I4">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J4">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +673,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05147733333333333</v>
+        <v>0.05147733333333334</v>
       </c>
       <c r="N4">
         <v>0.154432</v>
       </c>
       <c r="O4">
-        <v>0.6968198390066058</v>
+        <v>0.887188413789934</v>
       </c>
       <c r="P4">
-        <v>0.6968198390066057</v>
+        <v>0.8871884137899338</v>
       </c>
       <c r="Q4">
-        <v>0.3903585728782222</v>
+        <v>0.0001485292657777778</v>
       </c>
       <c r="R4">
-        <v>3.513227155904</v>
+        <v>0.001336763392</v>
       </c>
       <c r="S4">
-        <v>0.6889699593801091</v>
+        <v>0.0003374418620898182</v>
       </c>
       <c r="T4">
-        <v>0.688969959380109</v>
+        <v>0.0003374418620898182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +702,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H5">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I5">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J5">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02239733333333334</v>
+        <v>0.006545666666666668</v>
       </c>
       <c r="N5">
-        <v>0.067192</v>
+        <v>0.019637</v>
       </c>
       <c r="O5">
-        <v>0.3031801609933943</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="P5">
-        <v>0.3031801609933942</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="Q5">
-        <v>0.1698415692915556</v>
+        <v>1.888643022222223E-05</v>
       </c>
       <c r="R5">
-        <v>1.528574123624</v>
+        <v>0.000169977872</v>
       </c>
       <c r="S5">
-        <v>0.2997647476602537</v>
+        <v>4.290785488666701E-05</v>
       </c>
       <c r="T5">
-        <v>0.2997647476602536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.019102</v>
-      </c>
-      <c r="H6">
-        <v>0.057306</v>
-      </c>
-      <c r="I6">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J6">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.05147733333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.154432</v>
-      </c>
-      <c r="O6">
-        <v>0.6968198390066058</v>
-      </c>
-      <c r="P6">
-        <v>0.6968198390066057</v>
-      </c>
-      <c r="Q6">
-        <v>0.0009833200213333331</v>
-      </c>
-      <c r="R6">
-        <v>0.008849880191999998</v>
-      </c>
-      <c r="S6">
-        <v>0.001735527287540892</v>
-      </c>
-      <c r="T6">
-        <v>0.001735527287540891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.019102</v>
-      </c>
-      <c r="H7">
-        <v>0.057306</v>
-      </c>
-      <c r="I7">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J7">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.02239733333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.067192</v>
-      </c>
-      <c r="O7">
-        <v>0.3031801609933943</v>
-      </c>
-      <c r="P7">
-        <v>0.3031801609933942</v>
-      </c>
-      <c r="Q7">
-        <v>0.0004278338613333333</v>
-      </c>
-      <c r="R7">
-        <v>0.003850504752</v>
-      </c>
-      <c r="S7">
-        <v>0.000755112602986736</v>
-      </c>
-      <c r="T7">
-        <v>0.0007551126029867359</v>
+        <v>4.290785488666701E-05</v>
       </c>
     </row>
   </sheetData>
